--- a/docs/grouppl설계서-마성익.xlsx
+++ b/docs/grouppl설계서-마성익.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -539,14 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>황인배 25세 남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박원석 37세 남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 만들기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,6 +591,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>뷰 이름</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>쿼리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String sql = " INSERT INTO PROJECT ( PROJECTSEQ, PROJECTNAME, LEADER, STARTDATE, ENDDATE, README, OPEN ) VALUES ( SEQ_PROJECT.NEXTVAL, ? ,?, ?, ?, ?, ? );</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String sql = " INSERT INTO PROJECTS </t>
+  </si>
+  <si>
+    <t>( PROJECT_SEQ, PROJECTNAME, LEADER, STARTDATE, ENDDATE, README, ISOPEN, IMAGE )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALUES ( SEQ_PROJECT.NEXTVAL, ? ,?, ?, ?, ?, ?, ? );</t>
+  </si>
+  <si>
+    <t>스킬값 인설트</t>
+  </si>
+  <si>
+    <t>String sql = " INSERT INTO PROJECT_TAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( PROJECT_SEQ, TAGNAME) VALUES ( ?, ? );</t>
+  </si>
+  <si>
+    <t>프로젝트 인설트</t>
+  </si>
+  <si>
     <t>String sql = SELECT * FROM PROJECT WHERE PROJECTSEQ =?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,20 +633,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> String sql = " INSERT INTO PROJECT ( PROJECTSEQ, PROJECTNAME, LEADER, STARTDATE, ENDDATE, README, OPEN ) VALUES ( SEQ_PROJECT.NEXTVAL, ? ,?, ?, ?, ?, ? );</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">String sql = UPDATE USER_TAG SET ID = ? , SKILLNAME = ? </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마성익 31세 남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>SELECT * FROM PROJECTS WHERE PROJECT_SEQ =?</t>
+  </si>
+  <si>
+    <t>UPDATE PROJECTS SET LEADER =?, STARTDATE=?,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDDATE=?, PROGRESS=?, README=?, ISOPEN=?, IMAGE=?, </t>
+  </si>
+  <si>
+    <t>WHERE PROJECT_SEQ =?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE PROJECT_TAG PROJECT_SEQ = ?, TAGNAME = ? </t>
   </si>
   <si>
     <t>String sql = " SELECT A.IMAGE, A.NAME, A.INVITE FROM USER A INNER JOIN USER_TAG B ON (A.ID = B.ID) WHERE A.INVITE = 'Y' ";</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select image, name, invite from customuser where invite = 'y'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마성익 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">황인배 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박원석 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String sql = " SELECT a.sadjkas, a.asdasd, a.asdasd "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " FROM User a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               + " INNER JOIN User_tag b "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               + " ON (a.id = b.id) "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " WHERE a.INVITE = 'Y' ";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (int i = 0; i &lt; 스킬리스트 크기; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         sql += "AND b.tagname = ?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
   </si>
 </sst>
 </file>
@@ -1303,25 +1376,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,12 +1414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,12 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2287,16 +2360,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>122625</xdr:rowOff>
+      <xdr:rowOff>113099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2313,8 +2386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3467101" y="676275"/>
-          <a:ext cx="6819899" cy="1989525"/>
+          <a:off x="7277101" y="1257299"/>
+          <a:ext cx="2457449" cy="1398975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,6 +2578,82 @@
         <a:xfrm>
           <a:off x="10113999" y="5772150"/>
           <a:ext cx="163449" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="1657350"/>
+          <a:ext cx="2447925" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618647</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="733425"/>
+          <a:ext cx="3828572" cy="580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3086,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -3222,7 +3371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3622,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V37"/>
+  <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3642,7 +3791,7 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
@@ -3697,7 +3846,7 @@
     <row r="4" spans="2:22">
       <c r="B4" s="36"/>
       <c r="J4" s="79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80"/>
@@ -3751,7 +3900,7 @@
     <row r="8" spans="2:22">
       <c r="B8" s="36"/>
       <c r="J8" s="79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="83"/>
       <c r="L8" s="79" t="s">
@@ -3843,7 +3992,7 @@
     <row r="14" spans="2:22" ht="17.25" thickBot="1">
       <c r="B14" s="36"/>
       <c r="J14" s="78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K14" s="77"/>
       <c r="L14" s="79"/>
@@ -3857,11 +4006,11 @@
     <row r="15" spans="2:22" ht="17.25" thickBot="1">
       <c r="B15" s="36"/>
       <c r="J15" s="78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K15" s="77"/>
       <c r="L15" s="78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" s="90"/>
       <c r="N15" s="90"/>
@@ -3873,7 +4022,7 @@
     <row r="16" spans="2:22">
       <c r="B16" s="36"/>
       <c r="J16" s="79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="65"/>
@@ -4035,11 +4184,11 @@
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
       <c r="N29" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O29" s="83"/>
       <c r="P29" s="79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="83"/>
       <c r="V29" s="38"/>
@@ -4104,7 +4253,7 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -4129,7 +4278,7 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4154,7 +4303,47 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="P40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="P41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="P42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4196,10 +4385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V38"/>
+  <dimension ref="B1:V52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4216,7 +4405,7 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
@@ -4325,7 +4514,7 @@
     <row r="8" spans="2:22">
       <c r="B8" s="42"/>
       <c r="J8" s="79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="83"/>
       <c r="L8" s="79" t="s">
@@ -4386,7 +4575,7 @@
         <v>2017</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="P12" s="94">
+      <c r="P12" s="93">
         <v>42772</v>
       </c>
       <c r="Q12" s="77"/>
@@ -4412,18 +4601,18 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="42"/>
-      <c r="J14" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="96"/>
+      <c r="J14" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="95"/>
       <c r="L14" s="49"/>
       <c r="Q14" s="70"/>
       <c r="V14" s="43"/>
     </row>
     <row r="15" spans="2:22" ht="17.25" thickBot="1">
       <c r="B15" s="42"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="87"/>
       <c r="M15" s="89"/>
       <c r="N15" s="89"/>
@@ -4554,8 +4743,8 @@
     </row>
     <row r="26" spans="2:22" ht="17.25" thickBot="1">
       <c r="B26" s="42"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
       <c r="L26" s="84"/>
       <c r="M26" s="85"/>
       <c r="N26" s="85"/>
@@ -4661,100 +4850,135 @@
       <c r="V34" s="69"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="98"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="G45" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-    </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-    </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-    </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="G46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4768,6 +4992,7 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="L15:Q26"/>
     <mergeCell ref="B35:V36"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="J4:Q5"/>
     <mergeCell ref="J6:K7"/>
@@ -4777,7 +5002,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="J26:K26"/>
     <mergeCell ref="J8:K11"/>
     <mergeCell ref="L8:Q11"/>
     <mergeCell ref="J12:K12"/>
@@ -4793,10 +5017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V35"/>
+  <dimension ref="B1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4810,7 +5034,7 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
@@ -4850,7 +5074,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
       <c r="O3" s="62"/>
@@ -4865,24 +5089,19 @@
     <row r="4" spans="2:22">
       <c r="B4" s="42"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
       <c r="O4" s="51"/>
       <c r="V4" s="43"/>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="42"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="101"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="51"/>
       <c r="V5" s="43"/>
     </row>
@@ -4890,11 +5109,6 @@
       <c r="B6" s="42"/>
       <c r="F6" s="50"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
       <c r="O6" s="51"/>
       <c r="V6" s="43"/>
     </row>
@@ -4913,8 +5127,6 @@
     <row r="8" spans="2:22">
       <c r="B8" s="42"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -4925,8 +5137,6 @@
     <row r="9" spans="2:22">
       <c r="B9" s="42"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -4984,16 +5194,16 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="42"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="96"/>
-      <c r="N14" s="104" t="s">
+      <c r="I14" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="95"/>
+      <c r="N14" s="106" t="s">
         <v>129</v>
       </c>
       <c r="O14" s="51"/>
@@ -5001,40 +5211,40 @@
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="42"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="100"/>
-      <c r="N15" s="105"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="104"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="51"/>
       <c r="V15" s="43"/>
     </row>
     <row r="16" spans="2:22">
       <c r="B16" s="42"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="100"/>
-      <c r="N16" s="105"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="104"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="51"/>
       <c r="V16" s="43"/>
     </row>
     <row r="17" spans="2:22" ht="17.25" thickBot="1">
       <c r="B17" s="42"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="98"/>
-      <c r="N17" s="106"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="97"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="51"/>
       <c r="V17" s="43"/>
     </row>
@@ -5052,16 +5262,16 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="42"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="96"/>
-      <c r="N19" s="104" t="s">
+      <c r="I19" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="95"/>
+      <c r="N19" s="106" t="s">
         <v>129</v>
       </c>
       <c r="O19" s="51"/>
@@ -5069,40 +5279,40 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="42"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="100"/>
-      <c r="N20" s="105"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="104"/>
+      <c r="N20" s="107"/>
       <c r="O20" s="51"/>
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="42"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="100"/>
-      <c r="N21" s="105"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="104"/>
+      <c r="N21" s="107"/>
       <c r="O21" s="51"/>
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="2:22" ht="17.25" thickBot="1">
       <c r="B22" s="42"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="98"/>
-      <c r="N22" s="106"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="97"/>
+      <c r="N22" s="108"/>
       <c r="O22" s="51"/>
       <c r="V22" s="43"/>
     </row>
@@ -5120,16 +5330,16 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="42"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="96"/>
-      <c r="N24" s="104" t="s">
+      <c r="I24" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="95"/>
+      <c r="N24" s="106" t="s">
         <v>129</v>
       </c>
       <c r="O24" s="51"/>
@@ -5137,40 +5347,40 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="42"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="100"/>
-      <c r="N25" s="105"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="104"/>
+      <c r="N25" s="107"/>
       <c r="O25" s="51"/>
       <c r="V25" s="43"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="42"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="100"/>
-      <c r="N26" s="105"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="104"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="51"/>
       <c r="V26" s="43"/>
     </row>
     <row r="27" spans="2:22" ht="17.25" thickBot="1">
       <c r="B27" s="42"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="98"/>
-      <c r="N27" s="106"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="97"/>
+      <c r="N27" s="108"/>
       <c r="O27" s="51"/>
       <c r="V27" s="43"/>
     </row>
@@ -5251,32 +5461,77 @@
       <c r="V34" s="69"/>
     </row>
     <row r="35" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B35" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
+      <c r="B35" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="F24:G27"/>
     <mergeCell ref="I24:L27"/>
@@ -5287,6 +5542,7 @@
     <mergeCell ref="F19:G22"/>
     <mergeCell ref="I19:L22"/>
     <mergeCell ref="N19:N22"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
